--- a/data.xlsx
+++ b/data.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixin\Documents\GitHub\ProvisionScraper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="138">
   <si>
     <t>1.1</t>
   </si>
@@ -33,7 +28,7 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>renewal</t>
+    <t>renewal.</t>
   </si>
   <si>
     <t>renewal this agreement will be automatically renewed for an additional one year period without any action by either party at the end of the stated term that is commencing on january and on each anniversary thereof renewal period unless one party gives to the other written notice ninety days in advance of the beginning of any of the renewal periods that this agreement is to be terminated subject to the terms of article iv of this agreement</t>
@@ -42,7 +37,7 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>acceptance</t>
+    <t>acceptance.</t>
   </si>
   <si>
     <t>acceptance executive hereby accepts employment with the company and agrees to devote his full time attention and best efforts to rendering the services described below the executive shall accept and follow the reasonable and lawful direction and authority of the company s board of directors board in the performance of his duties and shall comply with all reasonable and lawful existing and future regulations applicable to senior management level employees of the company and to the company s business</t>
@@ -51,7 +46,7 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>termination of prior agreements</t>
+    <t>termination of prior agreements.</t>
   </si>
   <si>
     <t>termination of prior agreements upon execution of this agreement all prior employment and or consultant agreements between executive and the company or its subsidiaries shall be deemed terminated and there shall be no right to severance or other related benefits thereunder provided however that the foregoing will not apply to any obligation of the company or any of its subsidiaries if any to indemnify executive against any losses costs damages or expenses</t>
@@ -60,7 +55,7 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>general duties</t>
+    <t>general duties.</t>
   </si>
   <si>
     <t>general duties executive shall serve as chief executive officer and president in such capacity executive shall do and perform all lawful services acts or other things necessary or advisable to manage and conduct the worldwide direction of the company including but not limited to the supervision direction and control of the work force and other employees of the company subject to the lawful policies and direction of the board to the extent consistent with the company s articles of incorporation as amended articles and bylaws as amended bylaws executive shall have all powers duties and responsibilities necessary to carry out his duties and such other powers and duties as the board may reasonably and lawfully prescribe consistent with the company s articles and bylaws</t>
@@ -69,7 +64,7 @@
     <t>2.2</t>
   </si>
   <si>
-    <t>exclusive services</t>
+    <t>exclusive services.</t>
   </si>
   <si>
     <t>exclusive services it is understood and agreed that executive may not engage in any other business activity during the employment term whether or not for profit or other remuneration without the prior written consent of the company provided however that the executive may i manage personal and family investments ii engage in charitable philanthropic educational religious civic and similar types of activities to the extent that such activities do not in the view of the company interfere with the business of the company or any affiliate or subsidiary of the company or the performance of the executive s duties under this agreement iii subject to the approval of the board serve as a director or as a member of an advisory board of another business enterprise and d engage in passive investment in non competing businesses and participate on non profit boards</t>
@@ -78,7 +73,7 @@
     <t>2.3</t>
   </si>
   <si>
-    <t>reporting obligations</t>
+    <t>reporting obligations.</t>
   </si>
   <si>
     <t>reporting obligations in connection with the performance of his duties hereunder the executive shall report directly to and take direction from the board</t>
@@ -87,7 +82,7 @@
     <t>3.1</t>
   </si>
   <si>
-    <t>annual base salary</t>
+    <t>annual base salary.</t>
   </si>
   <si>
     <t>annual base salary the company shall pay the executive salary for the services to be rendered by him during the employment term at the rate of two hundred and ten thousand dollars annually prorated for any portion of a year subject to increases if any as the board may determine in its sole discretion after periodic review of the executive s performance of his duties hereunder not less frequently than annually notwithstanding the foregoing executive s annual base salary shall increase as of the first day of each anniversary year of the effective date in an amount that is no less than five percent provided however that there shall not be any increase in base salary if at the anniversary date designated above either party to this agreement has issued a notice of termination as described in this agreement such base salary shall be payable in periodic installments in accordance with the terms of the company s regular payroll practices in effect from time to time during the term of this agreement but in no event less frequently than once each month</t>
@@ -96,16 +91,25 @@
     <t>3.2</t>
   </si>
   <si>
-    <t>bonuses</t>
+    <t>bonuses.</t>
   </si>
   <si>
     <t>bonuses in addition to the base salary and other benefits provided to executive hereunder company shall also pay the following bonus to executive</t>
   </si>
   <si>
+    <t>2007.</t>
+  </si>
+  <si>
+    <t>amount.</t>
+  </si>
+  <si>
+    <t>a the company agrees to pay to executive a cash bonus which shall be calculated as follows i a bonus to be earned when and if the company s net operating profit reaches for the calendar year the bonus to be paid shall be of the together with of any net operating profit above this amount upon the company s reaching or exceeding this goal of operating net profit employee shall have the option of accepting payment of the bonus in cash or accepting shares of company common stock at an option price of dollars per share which the parties agree represents the market price on the date of this agreement for such bonus the documentation to be used to determine eligibility shall be the usual profit and loss and or balance sheet statements prepared by the company in the ordinary course of business any bonus which is earned and due and payable to executive shall be payable in one lump sum within thirty days after the issuance of the k annual report following the end of the calendar year provided however that if executive is not employed with company for all of but the company achieves the operating profit levels identified herein while executive is employed with the company then the company shall pay the bonus called for by this paragraph a pro rated based upon the number of months the executive is employed with the company during calendar year all of the foregoing options shall have an exercise term of no less than five years from the date of each vesting within which they must be exercised</t>
+  </si>
+  <si>
     <t>3.3</t>
   </si>
   <si>
-    <t>expenses</t>
+    <t>expenses.</t>
   </si>
   <si>
     <t>expenses the company shall pay or reimburse the executive for all reasonable ordinary and necessary business expenses actually incurred or paid by the executive in the performance of executive s services under this agreement in accordance with the expense reimbursement policies of the company in effect from time to time during the employment term no later than thirty days following executive s presentation of such accurate supporting documents as the company may require provided however that any anticipated expense to be incurred by executive which exceeds must first be authorized by the board in writing to be eligible for reimbursement</t>
@@ -114,7 +118,7 @@
     <t>3.4</t>
   </si>
   <si>
-    <t>vacation</t>
+    <t>vacation.</t>
   </si>
   <si>
     <t>vacation the executive shall be entitled to three weeks paid vacation for each calendar year prorated for any portion of a year as applicable notwithstanding anything to the contrary in this agreement vacation time shall cease to accrue beyond six weeks at any given time during the employment term and vacation time shall again accrue up to the maximum when executive uses up vacation time to drop the vacation accrual below the maximum</t>
@@ -123,16 +127,43 @@
     <t>3.5</t>
   </si>
   <si>
-    <t>general employment benefits</t>
+    <t>general employment benefits.</t>
   </si>
   <si>
     <t>general employment benefits except where expressly provided for herein the executive shall be entitled to participate in and to receive the benefits under any pension health medical life accident and disability insurance plans or programs and any other employee benefit or fringe benefit plans that the company makes available generally to its employees and any such benefits and or levels of benefits available to senior management of the company as the same may be in effect from time to time during the employment term</t>
   </si>
   <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>options.</t>
+  </si>
+  <si>
+    <t>stock options</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>per share.</t>
+  </si>
+  <si>
+    <t>per share executive may sell such vested shares within twelve months of the employment term only if the employment term ends due to a termination by employer without cause section of this agreement or by executive with good reason section of this agreement</t>
+  </si>
+  <si>
+    <t>2009.</t>
+  </si>
+  <si>
+    <t>share.</t>
+  </si>
+  <si>
+    <t>b on the effective date executive is hereby granted options to purchase seven hundred and fifty thousand shares of common stock of the company at the dollars per share one third of such options shall vest on the last day of the first second and third years of the employment term resulting in one hundred percent vesting on the end of the third year of the employment term that is on december</t>
+  </si>
+  <si>
     <t>3.7</t>
   </si>
   <si>
-    <t>location travel</t>
+    <t>travel.</t>
   </si>
   <si>
     <t>location travel in connection with his employment during the employment term unless otherwise agreed by the executive in writing the principal place where executive shall office and provide services to the company shall be within a ten mile radius of executive s principal residence which is currently redondo beach california office area executive will undertake business travel on behalf of the company the authorized expenses of which shall be paid by the company pursuant to section of this agreement</t>
@@ -141,7 +172,7 @@
     <t>4.1</t>
   </si>
   <si>
-    <t>termination</t>
+    <t>termination.</t>
   </si>
   <si>
     <t>termination the employment term may be terminated earlier as provided for in this article iv or extended as set forth herein in the event of any termination in addition to any other obligations of company set forth below e g severance benefits company shall pay executive or the designated beneficiary as provided in section below or the estate or personal representative of executive a any accrued but unpaid salary accrued but unused vacation time un reimbursed expenses which otherwise would be reimbursed in the normal course and vested benefits under any of the company s benefit plans in which the executive and or his dependents or beneficiaries are participants or otherwise eligible for such benefits b the bonus identified in paragraph which has been previously declared but not yet paid according to the terms stated therein and c any other amounts due to executive pursuant to this article iv</t>
@@ -150,16 +181,13 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>termination by company for cause</t>
+    <t>termination by company for cause.</t>
   </si>
   <si>
     <t>termination by company for cause the company reserves the right to terminate the employment term for cause upon a executive s willful failure or refusal to perform his duties with the company other than such failure resulting from his incapacity due to physical or mental illness b executive s engaging in gross misconduct in connection with executive s work for company c executive s breach of this agreement or d executive s conviction of a felony or an act of fraud against the company or its affiliates provided however the company may not terminate the executive s employment for cause unless the company has first provided executive with written notice specifying the act or acts alleged to constitute cause and provided the executive with a period of thirty calendar days to cure the failure unless the cause is the executive s conviction for a crime or his engaging in an act of fraud or gross misconduct in which case he will not be entitled to any cure period and such notice of termination will be effective immediately upon a termination for cause executive shall not be entitled to</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>termination by company without cause</t>
+    <t>termination by company without cause.</t>
   </si>
   <si>
     <t>termination by company without cause notwithstanding anything to the contrary in this agreement the company reserves the right to terminate the employment term at any time upon ninety days advance written notice to executive without cause subject to the express terms and provisions set forth in sections and of this agreement</t>
@@ -168,7 +196,7 @@
     <t>4.4</t>
   </si>
   <si>
-    <t>voluntary termination by executive</t>
+    <t>termination by executive.</t>
   </si>
   <si>
     <t>voluntary termination by executive notwithstanding anything to the contrary in this agreement executive may terminate this agreement at any time upon ninety days advance written notice to the company subject to the terms and provisions below except in the case of a termination for good reason as set forth in section of this agreement the company shall not be obligated to pay any severance benefits to executive if executive terminates this agreement pursuant to this section of this agreement</t>
@@ -177,7 +205,7 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>severance benefits</t>
+    <t>benefits.</t>
   </si>
   <si>
     <t>severance benefits if the employment term is terminated by company without cause as set forth in section of this agreement or executive terminates his employment for good reason as set forth in section of this agreement company shall provide executive or the designated beneficiary as provided in section below or the estate or personal representative of executive severance benefits as follows a an immediate one time lump sum cash payment equal to twelve months of executive s annual base salary as provided for in section of this agreement or executive s then current rate of compensation whichever is greater less any taxes that must be withheld and b any portion of any stock options granted by company to executive pursuant to section or otherwise shall immediately vest and all such options shall be exercisable until and including ninety days after the termination provided however that executive shall not be entitled to receive any of such severance benefits unless he or his duly designated representative if he is dead or disabled shall first have executed before a notary and delivered to the company a release of all claims of any kind or character he may have against the company other than claims arising out of the company s failure to comply with the severance terms and such release shall have become effective under applicable law</t>
@@ -195,7 +223,7 @@
     <t>4.7</t>
   </si>
   <si>
-    <t>change of control</t>
+    <t>change of control.</t>
   </si>
   <si>
     <t>change of control for purposes of this agreement a change of control shall mean an event involving one transaction or a series of related transactions in which a the company issues securities representing more than fifty percent of the beneficial ownership within the meaning of rule d promulgated under the securities exchange act of as amended the exchange act or any successor provision of the outstanding voting power of the then outstanding securities entitled to vote generally in the election of directors voting stock of the company to any individual firm partnership or other entity including a group within the meaning of section d of the exchange act b the company issues securities representing more than fifty percent voting stock of the company in connection with a merger consolidation or other business combination other than for purposes of reincorporation c the company is acquired in a merger or other business combination transaction in which the company is not the surviving corporation other than a reincorporation d more than fifty percent of the company s voting stock or consolidated assets are sold or transferred or e the board determines in its sole and absolute discretion that there has been a change in control of the company provided however that clauses b c and d above will constitute a change in control only if all or substantially all of the individuals and entities who were the beneficial owners of voting stock of the company immediately prior to such merger consolidation or other business combination or sale or transfer of earning power or assets each a business combination beneficially own less than of the combined voting power of the then outstanding shares of voting stock of the entity resulting from such business combination including without limitation an entity which as a result of such transaction owns the company or all or substantially all of the company s earning power or assets either directly or through one or more subsidiaries</t>
@@ -204,7 +232,7 @@
     <t>4.8</t>
   </si>
   <si>
-    <t>disability</t>
+    <t>disability.</t>
   </si>
   <si>
     <t>disability if executive becomes permanently and totally disabled this agreement shall be terminated executive shall be deemed permanently and totally disabled if he is deemed by the board in its sole discretion to be physically mentally or psychologically unable with or without reasonable accommodation to perform the essential functions of his job including the activities required by this agreement for a continuous period of ninety days within that day period executive shall be entitled to submit for board consideration a bona fide report from a duly qualified medical doctor that if applicable the executive is capable of performing the essential functions of his job the board in its sole discretion shall give consideration to such information as it shall consider appropriate if the executive s employment is terminated due to disability the company shall promptly provide the severance benefits as defined in and subject to the terms of section of this agreement to executive this section will not limit the entitlement of the executive to any other rights or benefits then available to the executive under any plan or program of the company or under applicable law</t>
@@ -213,7 +241,7 @@
     <t>4.9</t>
   </si>
   <si>
-    <t>death</t>
+    <t>death.</t>
   </si>
   <si>
     <t>death if executive dies during the employment term the employment term shall be terminated on the last day of the calendar month of his death subject to the express terms and provisions below upon termination due to death the company shall promptly provide the severance benefits as defined in and subject to the terms of section of this agreement to executive s designated beneficiary estate or personal representative this section will not limit the entitlement of the executive s beneficiaries estate or personal representative to any</t>
@@ -222,7 +250,7 @@
     <t>4.10</t>
   </si>
   <si>
-    <t>effect of termination</t>
+    <t>effect of termination.</t>
   </si>
   <si>
     <t>effect of termination except as expressly provided for in this agreement the termination of employment shall not impair any obligation that accrued prior to termination nor shall it excuse the performance of any obligation which is required or contemplated hereunder to be performed after termination and any such obligation shall survive the termination of employment and this agreement</t>
@@ -231,7 +259,7 @@
     <t>5.1</t>
   </si>
   <si>
-    <t>unfair and non competition</t>
+    <t>competition.</t>
   </si>
   <si>
     <t>unfair and non competition the executive acknowledges that he will have access at the highest level to and the opportunity to acquire knowledge of the company s customer lists customer needs business plans trade secrets and other confidential and proprietary information from which the company may derive economic or competitive advantage and that he is entering into the covenants and representations in this article v in order to preserve the goodwill and going concern value of the company and to induce the company to enter into this agreement in consideration of that as well as in consideration of the compensation and other terms and conditions of this agreement and in recognition of the fact that the company would not be offering employment without the following the executive agrees not to compete with the company or to engage in any unfair competition with the company during the employment term for purposes of this agreement the phrase compete with the company or the substantial equivalent thereof means that executive either alone or as a partner member director employee shareholder or agent of any other business or in any other individual or representative capacity directly or indirectly owns manages operates controls or participates in the ownership management operation or control of or works for or provides consulting services to or permits the use of his name by or lends money to any business or activity which is or which becomes at the time of the acts or conduct in question directly or indirectly competitive with the development financing and or marketing of the products proposed products or services of the company provided however that compete with the company shall not include the executive s use of the international dealers network he developed prior to becoming employed with the company and documentation about such network shall be submitted in advance to the company for its review and shall be mutually approved contemporaneously with the signing of this agreement during the employment term executive shall not directly or indirectly acquire any stock or interest in any corporation partnership or other business entity that competes directly or indirectly with the business of the company without obtaining the prior written consent of the company notwithstanding the foregoing this section shall not apply to the ownership or acquisition of stock or an interest representing less than a beneficial interest in a corporation that is obligated to file reports with the securities and exchange commission pursuant to the exchange act after the employment has expired the executive shall be permitted to work in the dental industry solely based upon his representation to the company that he will not disclose to anyone nor permit to be disclosed to anyone any of the company s confidential information including but not limited to the company s related product lines and patents</t>
@@ -240,7 +268,7 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>confidential information</t>
+    <t>confidential information.</t>
   </si>
   <si>
     <t>confidential information during the employment term and thereafter executive agrees to keep secret and to retain in the strictest confidence all material confidential matters which relate to the company or its affiliate as that term is defined in the exchange act including without limitation customer lists client lists trade secrets pricing lists business plans financial projections and reports business strategies internal operating procedures and other confidential business information from which the company derives an economic or competitive advantage or from which the company might derive such advantage in its business and not to disclose any such information to anyone outside of the company whether during or after the employment term except in connection with pursuing in good faith the interests and business of the company the foregoing restrictions and obligations under this section will not apply a to any confidential information that is or becomes generally available to the public or generally known to persons engaged in businesses similar to or related to that of the company other than as a result of an unauthorized disclosure by executive b if the executive is required by law to make such a disclosure provided however that if executive believes he is compelled by law to make such a disclosure then he shall provide fifteen days written notice of such event to the company to afford it the opportunity to contest such disclosure or take steps to prevent public revelation of it if feasible c to a disclosure to any director of the company unless such director is seeking disclosure adverse to the interests of the company or d to information and relationships executive had before joining the company the company may waive application of the foregoing restrictions and obligations in its sole discretion from time to time the executive will use only such confidential information for purposes of performing its duties under this agreement</t>
@@ -249,7 +277,7 @@
     <t>5.3</t>
   </si>
   <si>
-    <t>return of property</t>
+    <t>return of property.</t>
   </si>
   <si>
     <t>return of property upon termination of employment or at the request of the company the executive agrees promptly to deliver to the company all company or affiliate memoranda notes records reports manuals drawings designs computer files in any media and any other documents including extracts and copies thereof relating to the company or its affiliates and all other property of the company upon termination the executive shall cease to use all such materials and information set forth under section and shall take all steps necessary to prevent usage by any other person who has access to such materials and information</t>
@@ -258,7 +286,7 @@
     <t>5.4</t>
   </si>
   <si>
-    <t>inventions</t>
+    <t>inventions.</t>
   </si>
   <si>
     <t>inventions all processes inventions patents copyrights trademarks and other intangible rights that may be conceived or developed by the executive either alone or with others during the employment term whether or not conceived or developed during executive s working hours and with respect to which the equipment supplies facilities or trade secret information of the company was used or that relate at the time of conception or reduction to practice of the invention to the business of the company or to the company s actual or demonstrably anticipated research or development or that result from any work performed by executive for the company shall be the sole property of the company upon the request of the company executive shall disclose to the company all inventions or ideas conceived during the employment term whether or not the property of the company under the terms of this provision provided that such disclosure shall be received by the company in confidence upon the request of the company executive shall execute all documents including patent applications and assignments required by the company to establish the company s rights under this provision</t>
@@ -267,12 +295,27 @@
     <t>5.5</t>
   </si>
   <si>
-    <t>representations</t>
+    <t>representations.</t>
   </si>
   <si>
     <t>representations the executive represents and warrants to the company that he has full power to enter into this agreement and perform his duties hereunder and that he has no</t>
   </si>
   <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>indemnities.</t>
+  </si>
+  <si>
+    <t>indemnities</t>
+  </si>
+  <si>
+    <t>thereof.</t>
+  </si>
+  <si>
+    <t>a executive shall indemnify and hold harmless the company from and against any losses claims damages or liabilities which arise out of any breach of executive s representations and warranties set forth in section of this agreement as determined in a court of law and made part of a final judgment after exhaustion of or the time has lapsed for any appeal thereof</t>
+  </si>
+  <si>
     <t>5.7</t>
   </si>
   <si>
@@ -285,7 +328,7 @@
     <t>6.1</t>
   </si>
   <si>
-    <t>notices</t>
+    <t>notices.</t>
   </si>
   <si>
     <t>notices all notices to be given by either party to the other shall be in writing and may be transmitted by personal delivery facsimile transmission overnight courier or mail registered or certified postage prepaid with return receipt requested provided however that notices of change of address or telex or facsimile number shall be effective only upon actual receipt by the other party notices shall be delivered at the following addresses unless changed as provided for herein</t>
@@ -294,7 +337,7 @@
     <t>6.2</t>
   </si>
   <si>
-    <t>no assignment in general</t>
+    <t>in general.</t>
   </si>
   <si>
     <t>no assignment in general except as provided below this agreement and the rights and obligations of the parties may not be assigned by either party without the prior written consent of the other party</t>
@@ -303,7 +346,7 @@
     <t>6.3</t>
   </si>
   <si>
-    <t>entire agreement</t>
+    <t>entire agreement.</t>
   </si>
   <si>
     <t>entire agreement this agreement and the documents delivered pursuant hereto supersede any and all other agreements or understandings of the parties either oral or written with respect to the employment of the executive by the company and contain the complete and final agreement and understanding of the parties with respect thereto the executive acknowledges that no representation inducements promises or agreements oral or otherwise have been made by the company or any of its officers directors employees or agents which are not expressed herein and that no other agreement shall be valid or binding on the company</t>
@@ -312,7 +355,7 @@
     <t>6.4</t>
   </si>
   <si>
-    <t>amendments and modifications</t>
+    <t>and modifications.</t>
   </si>
   <si>
     <t>amendments and modifications this agreement may be amended or modified only by a writing signed by both parties hereto</t>
@@ -321,7 +364,7 @@
     <t>6.5</t>
   </si>
   <si>
-    <t>withholding taxes</t>
+    <t>withholding taxes.</t>
   </si>
   <si>
     <t>withholding taxes all amounts payable under this agreement to executive whether such payment is to be made in cash or other property including without limitation stock</t>
@@ -330,7 +373,7 @@
     <t>6.6</t>
   </si>
   <si>
-    <t>severability headings construction</t>
+    <t>construction.</t>
   </si>
   <si>
     <t>severability headings construction if any provision of this agreement is held to be invalid or unenforceable by any judgment of a tribunal of competent jurisdiction the remaining provisions and terms of this agreement shall not be affected by such judgment and this agreement shall be carried out as nearly as possible according to its original terms and intent and to the full extent permitted by law any provision or restrictions found to be invalid shall be amended with such modifications as may be necessary to cure such invalidity and such restrictions shall apply as so modified or if such provisions cannot be amended they shall be deemed severable from the remaining provisions and the remaining provisions shall be fully enforceable in accordance with law the headings in this agreement are used solely for the convenience of the parties and shall not be accorded any substantive meaning this agreement shall be interpreted as though drafted by each of the parties hereto</t>
@@ -339,7 +382,7 @@
     <t>6.7</t>
   </si>
   <si>
-    <t>effect of waiver</t>
+    <t>effect of waiver.</t>
   </si>
   <si>
     <t>effect of waiver except as otherwise provided herein the failure of either party to insist on strict compliance with any provision of this agreement by the other party shall not be deemed a waiver of such provision or a relinquishment of any right thereunder or to affect either the validity of this agreement and shall not prevent enforcement of such provision or any similar provision at any time</t>
@@ -348,7 +391,7 @@
     <t>6.8</t>
   </si>
   <si>
-    <t>designation of beneficiary</t>
+    <t>designation of beneficiary.</t>
   </si>
   <si>
     <t>designation of beneficiary if the executive shall die before receipt of all payments and benefits to which he is entitled under this agreement payment of such amounts or benefits in the manner provided herein shall be made to such beneficiary as he shall have designated in writing filed with the secretary of the company or in the absence of such designation to his estate or personal representative</t>
@@ -357,7 +400,7 @@
     <t>6.9</t>
   </si>
   <si>
-    <t>attorneys fees</t>
+    <t>attorneys fees.</t>
   </si>
   <si>
     <t>attorneys fees in any proceeding brought to enforce any provision of this agreement or to seek relief for a breach of any provision hereof the prevailing party will be entitled to receive from the other party all reasonable attorney s fees and taxable costs in connection therewith subject to the terms of other provisions in this agreement specifically addressing this subject</t>
@@ -366,7 +409,7 @@
     <t>6.10</t>
   </si>
   <si>
-    <t>governing law</t>
+    <t>governing law.</t>
   </si>
   <si>
     <t>governing law given the principal location of the company and the principal location of executive s office the parties agree that this agreement will be governed by and construed in accordance with the laws of the state of california to the extent they do not conflict with the laws of texas and will be performable in los angeles county california</t>
@@ -375,13 +418,13 @@
     <t>6.11</t>
   </si>
   <si>
-    <t>arbitration</t>
+    <t>arbitration.</t>
   </si>
   <si>
     <t>arbitration in consideration of their joint efforts to avoid litigation and its attendant costs delays and risks the parties agree that all disputes concerning this agreement or any matter related thereto or arising out of or related in any manner to the employment relationship described herein shall be decided by binding arbitration in accordance with the terms of this agreement pursuant to the federal arbitration act faa the parties acknowledge that they have been specifically informed of their right to counsel with attorneys of their own choosing and that in signing this agreement they are irrevocably waiving their rights to a trial before a judicial tribunal or trial by jury in any court except as is necessary to enforce this agreement preserve the status quo or confirm or enforce any award resulting from arbitration under this agreement and that the entire controversy between them is being submitted to arbitration and that they are waiving the right to assert a claim of fraudulent inducement to arbitrate or reliance on faulty advice of counsel</t>
   </si>
   <si>
-    <t>counterparts</t>
+    <t>counterparts.</t>
   </si>
   <si>
     <t>counterparts this agreement may be executed in one or more counterparts each of which shall be deemed to be an original but all of which together shall constitute one</t>
@@ -390,8 +433,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,14 +471,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -482,7 +517,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,27 +549,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,24 +583,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -759,17 +758,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="52.3984375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -791,7 +787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -802,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -813,7 +809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -824,7 +820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -835,7 +831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -846,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -857,7 +853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -868,7 +864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -879,7 +875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -890,7 +886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -901,7 +897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -912,7 +908,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -923,7 +919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -934,7 +930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -945,7 +941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -956,7 +952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -967,7 +963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -978,246 +974,312 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>94</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>97</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>100</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
         <v>102</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>103</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>106</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
         <v>108</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>109</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>112</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="C39" t="s">
         <v>114</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>115</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>120</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
